--- a/stock_list.xlsx
+++ b/stock_list.xlsx
@@ -994,9 +994,15 @@
       <c r="H2" s="18" t="n">
         <v>166</v>
       </c>
-      <c r="I2" s="58" t="n"/>
-      <c r="J2" s="58" t="n"/>
-      <c r="K2" s="58" t="n"/>
+      <c r="I2" s="58" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J2" s="58" t="n">
+        <v>136.33</v>
+      </c>
+      <c r="K2" s="58" t="n">
+        <v>0.89</v>
+      </c>
       <c r="L2" s="59" t="n">
         <v>0.2183</v>
       </c>
@@ -1099,9 +1105,15 @@
       <c r="H3" s="18" t="n">
         <v>245</v>
       </c>
-      <c r="I3" s="58" t="n"/>
-      <c r="J3" s="58" t="n"/>
-      <c r="K3" s="58" t="n"/>
+      <c r="I3" s="58" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="J3" s="58" t="n">
+        <v>-62.03</v>
+      </c>
+      <c r="K3" s="58" t="n">
+        <v>1.06</v>
+      </c>
       <c r="L3" s="59" t="n">
         <v>-0.2703</v>
       </c>
@@ -1204,9 +1216,15 @@
       <c r="H4" s="18" t="n">
         <v>1327</v>
       </c>
-      <c r="I4" s="58" t="n"/>
-      <c r="J4" s="58" t="n"/>
-      <c r="K4" s="58" t="n"/>
+      <c r="I4" s="58" t="n">
+        <v>133.93</v>
+      </c>
+      <c r="J4" s="58" t="n">
+        <v/>
+      </c>
+      <c r="K4" s="58" t="n">
+        <v>2.79</v>
+      </c>
       <c r="L4" s="59" t="n">
         <v>-0.291</v>
       </c>
@@ -1309,9 +1327,15 @@
       <c r="H5" s="18" t="n">
         <v>763</v>
       </c>
-      <c r="I5" s="58" t="n"/>
-      <c r="J5" s="58" t="n"/>
-      <c r="K5" s="58" t="n"/>
+      <c r="I5" s="58" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="J5" s="58" t="n">
+        <v>-77.76000000000001</v>
+      </c>
+      <c r="K5" s="58" t="n">
+        <v>2.74</v>
+      </c>
       <c r="L5" s="59" t="n">
         <v>-0.3145</v>
       </c>
@@ -1414,9 +1438,15 @@
       <c r="H6" s="18" t="n">
         <v>842</v>
       </c>
-      <c r="I6" s="58" t="n"/>
-      <c r="J6" s="58" t="n"/>
-      <c r="K6" s="58" t="n"/>
+      <c r="I6" s="58" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="J6" s="58" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="K6" s="58" t="n">
+        <v>0.32</v>
+      </c>
       <c r="L6" s="59" t="n">
         <v>0.07630000000000001</v>
       </c>
@@ -1519,9 +1549,15 @@
       <c r="H7" s="18" t="n">
         <v>317</v>
       </c>
-      <c r="I7" s="58" t="n"/>
-      <c r="J7" s="58" t="n"/>
-      <c r="K7" s="58" t="n"/>
+      <c r="I7" s="58" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="J7" s="58" t="n">
+        <v/>
+      </c>
+      <c r="K7" s="58" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="L7" s="59" t="n">
         <v>-0.2521</v>
       </c>
@@ -1624,9 +1660,15 @@
       <c r="H8" s="18" t="n">
         <v>4370</v>
       </c>
-      <c r="I8" s="58" t="n"/>
-      <c r="J8" s="58" t="n"/>
-      <c r="K8" s="58" t="n"/>
+      <c r="I8" s="58" t="n">
+        <v>-14.43</v>
+      </c>
+      <c r="J8" s="58" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="58" t="n">
+        <v>12.08</v>
+      </c>
       <c r="L8" s="59" t="n">
         <v>-0.1869</v>
       </c>
@@ -1729,9 +1771,15 @@
       <c r="H9" s="18" t="n">
         <v>659</v>
       </c>
-      <c r="I9" s="58" t="n"/>
-      <c r="J9" s="58" t="n"/>
-      <c r="K9" s="58" t="n"/>
+      <c r="I9" s="58" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="J9" s="58" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="K9" s="58" t="n">
+        <v>1.06</v>
+      </c>
       <c r="L9" s="59" t="n">
         <v>-0.0743</v>
       </c>
@@ -1834,9 +1882,15 @@
       <c r="H10" s="18" t="n">
         <v>9055</v>
       </c>
-      <c r="I10" s="58" t="n"/>
-      <c r="J10" s="58" t="n"/>
-      <c r="K10" s="58" t="n"/>
+      <c r="I10" s="58" t="n">
+        <v>55.91</v>
+      </c>
+      <c r="J10" s="58" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="K10" s="58" t="n">
+        <v>1.87</v>
+      </c>
       <c r="L10" s="59" t="n">
         <v>0.1919</v>
       </c>
@@ -1939,9 +1993,15 @@
       <c r="H11" s="18" t="n">
         <v>985</v>
       </c>
-      <c r="I11" s="58" t="n"/>
-      <c r="J11" s="58" t="n"/>
-      <c r="K11" s="58" t="n"/>
+      <c r="I11" s="58" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="J11" s="58" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K11" s="58" t="n">
+        <v>0.95</v>
+      </c>
       <c r="L11" s="59" t="n">
         <v>0.0762</v>
       </c>
@@ -2044,9 +2104,15 @@
       <c r="H12" s="18" t="n">
         <v>2607</v>
       </c>
-      <c r="I12" s="58" t="n"/>
-      <c r="J12" s="58" t="n"/>
-      <c r="K12" s="58" t="n"/>
+      <c r="I12" s="58" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="J12" s="58" t="n">
+        <v/>
+      </c>
+      <c r="K12" s="58" t="n">
+        <v>3.91</v>
+      </c>
       <c r="L12" s="59" t="n">
         <v>-0.0228</v>
       </c>
@@ -2149,9 +2215,15 @@
       <c r="H13" s="18" t="n">
         <v>1543</v>
       </c>
-      <c r="I13" s="58" t="n"/>
-      <c r="J13" s="58" t="n"/>
-      <c r="K13" s="58" t="n"/>
+      <c r="I13" s="58" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="J13" s="58" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="K13" s="58" t="n">
+        <v>0.12</v>
+      </c>
       <c r="L13" s="59" t="n">
         <v>0.351</v>
       </c>
@@ -2254,9 +2326,15 @@
       <c r="H14" s="18" t="n">
         <v>1274</v>
       </c>
-      <c r="I14" s="58" t="n"/>
-      <c r="J14" s="58" t="n"/>
-      <c r="K14" s="58" t="n"/>
+      <c r="I14" s="58" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="J14" s="58" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K14" s="58" t="n">
+        <v>0.78</v>
+      </c>
       <c r="L14" s="59" t="n">
         <v>-0.1164</v>
       </c>
@@ -2359,9 +2437,15 @@
       <c r="H15" s="18" t="n">
         <v>1191</v>
       </c>
-      <c r="I15" s="58" t="n"/>
-      <c r="J15" s="58" t="n"/>
-      <c r="K15" s="58" t="n"/>
+      <c r="I15" s="58" t="n">
+        <v>-35.95</v>
+      </c>
+      <c r="J15" s="58" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="K15" s="58" t="n">
+        <v>0.92</v>
+      </c>
       <c r="L15" s="59" t="n">
         <v>0.1257</v>
       </c>
@@ -2464,9 +2548,15 @@
       <c r="H16" s="18" t="n">
         <v>756</v>
       </c>
-      <c r="I16" s="58" t="n"/>
-      <c r="J16" s="58" t="n"/>
-      <c r="K16" s="58" t="n"/>
+      <c r="I16" s="58" t="n">
+        <v>-394.44</v>
+      </c>
+      <c r="J16" s="58" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="58" t="n">
+        <v>2.63</v>
+      </c>
       <c r="L16" s="59" t="n">
         <v>0.446</v>
       </c>
@@ -2569,9 +2659,15 @@
       <c r="H17" s="18" t="n">
         <v>1101</v>
       </c>
-      <c r="I17" s="58" t="n"/>
-      <c r="J17" s="58" t="n"/>
-      <c r="K17" s="58" t="n"/>
+      <c r="I17" s="58" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="J17" s="58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" s="58" t="n">
+        <v>1.01</v>
+      </c>
       <c r="L17" s="59" t="n">
         <v>0.0506</v>
       </c>
@@ -2674,9 +2770,15 @@
       <c r="H18" s="18" t="n">
         <v>425</v>
       </c>
-      <c r="I18" s="58" t="n"/>
-      <c r="J18" s="58" t="n"/>
-      <c r="K18" s="58" t="n"/>
+      <c r="I18" s="58" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="J18" s="58" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K18" s="58" t="n">
+        <v>3.3</v>
+      </c>
       <c r="L18" s="59" t="n">
         <v>-0.4244</v>
       </c>
@@ -2779,9 +2881,15 @@
       <c r="H19" s="18" t="n">
         <v>1489</v>
       </c>
-      <c r="I19" s="58" t="n"/>
-      <c r="J19" s="58" t="n"/>
-      <c r="K19" s="58" t="n"/>
+      <c r="I19" s="58" t="n">
+        <v>-7.61</v>
+      </c>
+      <c r="J19" s="58" t="n">
+        <v>-39.07</v>
+      </c>
+      <c r="K19" s="58" t="n">
+        <v>3.66</v>
+      </c>
       <c r="L19" s="59" t="n">
         <v>-0.067</v>
       </c>
@@ -2884,9 +2992,15 @@
       <c r="H20" s="18" t="n">
         <v>329</v>
       </c>
-      <c r="I20" s="58" t="n"/>
-      <c r="J20" s="58" t="n"/>
-      <c r="K20" s="58" t="n"/>
+      <c r="I20" s="58" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="J20" s="58" t="n">
+        <v>-16.98</v>
+      </c>
+      <c r="K20" s="58" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="L20" s="59" t="n">
         <v>-0.201</v>
       </c>
@@ -2989,9 +3103,15 @@
       <c r="H21" s="18" t="n">
         <v>13461</v>
       </c>
-      <c r="I21" s="58" t="n"/>
-      <c r="J21" s="58" t="n"/>
-      <c r="K21" s="58" t="n"/>
+      <c r="I21" s="58" t="n">
+        <v>60.42</v>
+      </c>
+      <c r="J21" s="58" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="K21" s="58" t="n">
+        <v>10.82</v>
+      </c>
       <c r="L21" s="59" t="n">
         <v>0.4309</v>
       </c>
@@ -3094,9 +3214,15 @@
       <c r="H22" s="18" t="n">
         <v>996</v>
       </c>
-      <c r="I22" s="58" t="n"/>
-      <c r="J22" s="58" t="n"/>
-      <c r="K22" s="58" t="n"/>
+      <c r="I22" s="58" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="J22" s="58" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="K22" s="58" t="n">
+        <v>0.53</v>
+      </c>
       <c r="L22" s="59" t="n">
         <v>0.0128</v>
       </c>
@@ -3199,9 +3325,15 @@
       <c r="H23" s="18" t="n">
         <v>697</v>
       </c>
-      <c r="I23" s="58" t="n"/>
-      <c r="J23" s="58" t="n"/>
-      <c r="K23" s="58" t="n"/>
+      <c r="I23" s="58" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="J23" s="58" t="n">
+        <v>-30.97</v>
+      </c>
+      <c r="K23" s="58" t="n">
+        <v>2.26</v>
+      </c>
       <c r="L23" s="59" t="n">
         <v>0.5553</v>
       </c>
@@ -3304,9 +3436,15 @@
       <c r="H24" s="18" t="n">
         <v>21129</v>
       </c>
-      <c r="I24" s="58" t="n"/>
-      <c r="J24" s="58" t="n"/>
-      <c r="K24" s="58" t="n"/>
+      <c r="I24" s="58" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="J24" s="58" t="n">
+        <v/>
+      </c>
+      <c r="K24" s="58" t="n">
+        <v>4.66</v>
+      </c>
       <c r="L24" s="59" t="n">
         <v>0.1433</v>
       </c>
@@ -3409,9 +3547,15 @@
       <c r="H25" s="18" t="n">
         <v>1178</v>
       </c>
-      <c r="I25" s="58" t="n"/>
-      <c r="J25" s="58" t="n"/>
-      <c r="K25" s="58" t="n"/>
+      <c r="I25" s="58" t="n">
+        <v>-29.63</v>
+      </c>
+      <c r="J25" s="58" t="n">
+        <v>-9.67</v>
+      </c>
+      <c r="K25" s="58" t="n">
+        <v>2.88</v>
+      </c>
       <c r="L25" s="59" t="n">
         <v>-0.2746</v>
       </c>
@@ -3514,9 +3658,15 @@
       <c r="H26" s="18" t="n">
         <v>593</v>
       </c>
-      <c r="I26" s="58" t="n"/>
-      <c r="J26" s="58" t="n"/>
-      <c r="K26" s="58" t="n"/>
+      <c r="I26" s="58" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="J26" s="58" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="K26" s="58" t="n">
+        <v>1.25</v>
+      </c>
       <c r="L26" s="59" t="n">
         <v>-0.4521</v>
       </c>
@@ -3619,9 +3769,15 @@
       <c r="H27" s="18" t="n">
         <v>757</v>
       </c>
-      <c r="I27" s="58" t="n"/>
-      <c r="J27" s="58" t="n"/>
-      <c r="K27" s="58" t="n"/>
+      <c r="I27" s="58" t="n">
+        <v>-4.82</v>
+      </c>
+      <c r="J27" s="58" t="n">
+        <v>-108.4</v>
+      </c>
+      <c r="K27" s="58" t="n">
+        <v>4.65</v>
+      </c>
       <c r="L27" s="59" t="n">
         <v>0.022</v>
       </c>
@@ -3724,9 +3880,15 @@
       <c r="H28" s="18" t="n">
         <v>459</v>
       </c>
-      <c r="I28" s="58" t="n"/>
-      <c r="J28" s="58" t="n"/>
-      <c r="K28" s="58" t="n"/>
+      <c r="I28" s="58" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="J28" s="58" t="n">
+        <v>-170.89</v>
+      </c>
+      <c r="K28" s="58" t="n">
+        <v>5.39</v>
+      </c>
       <c r="L28" s="59" t="n">
         <v>-0.0795</v>
       </c>
@@ -3829,9 +3991,15 @@
       <c r="H29" s="18" t="n">
         <v>592</v>
       </c>
-      <c r="I29" s="58" t="n"/>
-      <c r="J29" s="58" t="n"/>
-      <c r="K29" s="58" t="n"/>
+      <c r="I29" s="58" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="J29" s="58" t="n">
+        <v>-33.07</v>
+      </c>
+      <c r="K29" s="58" t="n">
+        <v>1.68</v>
+      </c>
       <c r="L29" s="59" t="n">
         <v>0.4858</v>
       </c>
@@ -3934,9 +4102,15 @@
       <c r="H30" s="18" t="n">
         <v>770</v>
       </c>
-      <c r="I30" s="58" t="n"/>
-      <c r="J30" s="58" t="n"/>
-      <c r="K30" s="58" t="n"/>
+      <c r="I30" s="58" t="n">
+        <v>-5.47</v>
+      </c>
+      <c r="J30" s="58" t="n">
+        <v>-213.62</v>
+      </c>
+      <c r="K30" s="58" t="n">
+        <v>24.54</v>
+      </c>
       <c r="L30" s="59" t="n">
         <v>0.0033</v>
       </c>
@@ -4039,9 +4213,15 @@
       <c r="H31" s="18" t="n">
         <v>3893</v>
       </c>
-      <c r="I31" s="58" t="n"/>
-      <c r="J31" s="58" t="n"/>
-      <c r="K31" s="58" t="n"/>
+      <c r="I31" s="58" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J31" s="58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K31" s="58" t="n">
+        <v>0.53</v>
+      </c>
       <c r="L31" s="59" t="n">
         <v>0.1436</v>
       </c>
@@ -4144,9 +4324,15 @@
       <c r="H32" s="18" t="n">
         <v>1769</v>
       </c>
-      <c r="I32" s="58" t="n"/>
-      <c r="J32" s="58" t="n"/>
-      <c r="K32" s="58" t="n"/>
+      <c r="I32" s="58" t="n">
+        <v>-38.26</v>
+      </c>
+      <c r="J32" s="58" t="n">
+        <v/>
+      </c>
+      <c r="K32" s="58" t="n">
+        <v>3.88</v>
+      </c>
       <c r="L32" s="59" t="n">
         <v>-0.3684</v>
       </c>
@@ -4249,9 +4435,15 @@
       <c r="H33" s="18" t="n">
         <v>855</v>
       </c>
-      <c r="I33" s="58" t="n"/>
-      <c r="J33" s="58" t="n"/>
-      <c r="K33" s="58" t="n"/>
+      <c r="I33" s="58" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="J33" s="58" t="n">
+        <v>-29.76</v>
+      </c>
+      <c r="K33" s="58" t="n">
+        <v>1.06</v>
+      </c>
       <c r="L33" s="59" t="n">
         <v>-0.07630000000000001</v>
       </c>
@@ -4354,9 +4546,15 @@
       <c r="H34" s="18" t="n">
         <v>1132</v>
       </c>
-      <c r="I34" s="58" t="n"/>
-      <c r="J34" s="58" t="n"/>
-      <c r="K34" s="58" t="n"/>
+      <c r="I34" s="58" t="n">
+        <v>-33.83</v>
+      </c>
+      <c r="J34" s="58" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="K34" s="58" t="n">
+        <v>0.42</v>
+      </c>
       <c r="L34" s="59" t="n">
         <v>0.0277</v>
       </c>
@@ -4459,9 +4657,15 @@
       <c r="H35" s="18" t="n">
         <v>1523</v>
       </c>
-      <c r="I35" s="58" t="n"/>
-      <c r="J35" s="58" t="n"/>
-      <c r="K35" s="58" t="n"/>
+      <c r="I35" s="58" t="n">
+        <v>-33.94</v>
+      </c>
+      <c r="J35" s="58" t="n">
+        <v>-15.55</v>
+      </c>
+      <c r="K35" s="58" t="n">
+        <v>4.58</v>
+      </c>
       <c r="L35" s="59" t="n">
         <v>-0.1174</v>
       </c>
@@ -4564,9 +4768,15 @@
       <c r="H36" s="18" t="n">
         <v>320</v>
       </c>
-      <c r="I36" s="58" t="n"/>
-      <c r="J36" s="58" t="n"/>
-      <c r="K36" s="58" t="n"/>
+      <c r="I36" s="58" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="J36" s="58" t="n">
+        <v>-28.13</v>
+      </c>
+      <c r="K36" s="58" t="n">
+        <v>0.37</v>
+      </c>
       <c r="L36" s="59" t="n">
         <v>-0.381</v>
       </c>
@@ -4669,9 +4879,15 @@
       <c r="H37" s="18" t="n">
         <v>1523</v>
       </c>
-      <c r="I37" s="58" t="n"/>
-      <c r="J37" s="58" t="n"/>
-      <c r="K37" s="58" t="n"/>
+      <c r="I37" s="58" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="J37" s="58" t="n">
+        <v>-11.63</v>
+      </c>
+      <c r="K37" s="58" t="n">
+        <v>0.18</v>
+      </c>
       <c r="L37" s="59" t="n">
         <v>0.16</v>
       </c>
@@ -4774,9 +4990,15 @@
       <c r="H38" s="18" t="n">
         <v>1275</v>
       </c>
-      <c r="I38" s="58" t="n"/>
-      <c r="J38" s="58" t="n"/>
-      <c r="K38" s="58" t="n"/>
+      <c r="I38" s="58" t="n">
+        <v>-47.04</v>
+      </c>
+      <c r="J38" s="58" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="K38" s="58" t="n">
+        <v>0.59</v>
+      </c>
       <c r="L38" s="59" t="n">
         <v>-0.2996</v>
       </c>
@@ -4879,9 +5101,15 @@
       <c r="H39" s="18" t="n">
         <v>15116</v>
       </c>
-      <c r="I39" s="58" t="n"/>
-      <c r="J39" s="58" t="n"/>
-      <c r="K39" s="58" t="n"/>
+      <c r="I39" s="58" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="J39" s="58" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="K39" s="58" t="n">
+        <v>2.97</v>
+      </c>
       <c r="L39" s="59" t="n">
         <v>0.1084</v>
       </c>
